--- a/po_analysis_by_asin/B0CPQ8XM9Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ8XM9Z_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>80</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>24</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>24</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>24</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>80</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>32</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>56</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>64</v>

--- a/po_analysis_by_asin/B0CPQ8XM9Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ8XM9Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,285 @@
       </c>
       <c r="B6" t="n">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32.9416894273066</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.01771314240953</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.83170934424722</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.5838936067297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.55758863498953</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.20110523998164</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.577811638751943</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.70835425084447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.161244794593854</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42.92045647745899</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5795215325971143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.49264972489001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3500463161652522</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.19673295917319</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.197014232348746</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.72812345130689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.689074590691943</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.97820986966489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.901648780787891</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.11864437618321</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.999452412272255</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.26272255091402</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.53796453734466</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29.93101369429449</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-15.91715551205265</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27.82739519824219</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-15.45640109995259</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.57479265297891</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-18.85982336576749</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.19558575416574</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18.19844612632044</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.66444811951336</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-21.79825858500599</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19.60030796459364</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQ8XM9Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ8XM9Z_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>54</v>
       </c>
-      <c r="C2" t="n">
-        <v>32.9416894273066</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75.01771314240953</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>37</v>
       </c>
-      <c r="C3" t="n">
-        <v>16.83170934424722</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.5838936067297</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>35</v>
       </c>
-      <c r="C4" t="n">
-        <v>15.55758863498953</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.20110523998164</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>31</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.577811638751943</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50.70835425084447</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.161244794593854</v>
-      </c>
-      <c r="D6" t="n">
-        <v>42.92045647745899</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.5795215325971143</v>
-      </c>
-      <c r="D7" t="n">
-        <v>41.49264972489001</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
-        <v>-0.3500463161652522</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40.19673295917319</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="n">
-        <v>-6.197014232348746</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35.72812345130689</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>-6.689074590691943</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33.97820986966489</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>11</v>
       </c>
-      <c r="C11" t="n">
-        <v>-8.901648780787891</v>
-      </c>
-      <c r="D11" t="n">
-        <v>32.11864437618321</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.999452412272255</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.26272255091402</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
-        <v>-12.53796453734466</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29.93101369429449</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>-15.91715551205265</v>
-      </c>
-      <c r="D14" t="n">
-        <v>27.82739519824219</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>-15.45640109995259</v>
-      </c>
-      <c r="D15" t="n">
-        <v>24.57479265297891</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>-18.85982336576749</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24.19558575416574</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>-18.19844612632044</v>
-      </c>
-      <c r="D17" t="n">
-        <v>23.66444811951336</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -865,12 +759,6 @@
       </c>
       <c r="B18" t="n">
         <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-21.79825858500599</v>
-      </c>
-      <c r="D18" t="n">
-        <v>19.60030796459364</v>
       </c>
     </row>
   </sheetData>
